--- a/data/trans_dic/P45C_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R2-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1141520069144453</v>
+        <v>0.1089138756769689</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.168794458129374</v>
+        <v>0.1702248091228643</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1313275728482581</v>
+        <v>0.1298319467609166</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1278275413798154</v>
+        <v>0.1283083590240779</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1260444054181775</v>
+        <v>0.1243995046871212</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09457840236563363</v>
+        <v>0.09895053381009961</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1560667053214684</v>
+        <v>0.1581292342800369</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.09062564968976504</v>
+        <v>0.09143065897353478</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.124696150955496</v>
+        <v>0.1221913235772838</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1489948534779784</v>
+        <v>0.1460326643137765</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1538415401861108</v>
+        <v>0.1537456736584592</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1182530742580716</v>
+        <v>0.1194428655873517</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1817300462692763</v>
+        <v>0.1754716127834413</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2491063946643143</v>
+        <v>0.2511857213288914</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2076346396923874</v>
+        <v>0.2033144806826574</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2021056823980042</v>
+        <v>0.1941235581632702</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2142180350302483</v>
+        <v>0.2078974416076751</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1715516595074847</v>
+        <v>0.1792797818580036</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2411176119492044</v>
+        <v>0.2438208424010231</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1455126914006634</v>
+        <v>0.1459480132659878</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1769707442672772</v>
+        <v>0.1784863912681041</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2071506610798577</v>
+        <v>0.2034490317031813</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2101263452419594</v>
+        <v>0.2118956099315079</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1619448032321354</v>
+        <v>0.1636703588455118</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1253851566445452</v>
+        <v>0.1233305183539706</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1103879466740887</v>
+        <v>0.1106232597989518</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08697885128604027</v>
+        <v>0.09118453110703777</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1276386634203792</v>
+        <v>0.1288090890804328</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1315146560746775</v>
+        <v>0.1291384693956903</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1258372196459829</v>
+        <v>0.1239546678266964</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1299826951028965</v>
+        <v>0.1301028891614799</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1158766395420997</v>
+        <v>0.1160573038631278</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1352868469790863</v>
+        <v>0.136169358346914</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1284365983792217</v>
+        <v>0.1291442151222608</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1190677341925134</v>
+        <v>0.1179150590324858</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1306040211576004</v>
+        <v>0.1344440164102375</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2027617751459868</v>
+        <v>0.1995954435698143</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1831237668828372</v>
+        <v>0.1843723018505253</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1561324018323277</v>
+        <v>0.1609254408220726</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1997836888961271</v>
+        <v>0.2013473034357147</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2072878976982972</v>
+        <v>0.203136783977361</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.211964510812602</v>
+        <v>0.2112660308004931</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2114422533093519</v>
+        <v>0.2087080809670514</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1792617274850168</v>
+        <v>0.1818894706774746</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1872798599972456</v>
+        <v>0.1890403950229102</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1870257747295532</v>
+        <v>0.1837068856793451</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1722049313372681</v>
+        <v>0.1710229741558267</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1800020231484635</v>
+        <v>0.1818550960869381</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1605572958513971</v>
+        <v>0.1616421093317723</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1251600319724716</v>
+        <v>0.1222042813548677</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0973649805667362</v>
+        <v>0.09832404527354671</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1403561334680099</v>
+        <v>0.1385854729610325</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0938537333799048</v>
+        <v>0.09021019722517895</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0970790970760915</v>
+        <v>0.09800211537034885</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07318881925791257</v>
+        <v>0.06695162037314724</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1070818024815062</v>
+        <v>0.1090900858204938</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1520602645732285</v>
+        <v>0.1538073258144225</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1247835537037211</v>
+        <v>0.1245998688271631</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.09881948423428384</v>
+        <v>0.09836344062554696</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1415987669112442</v>
+        <v>0.1397946018171292</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2282501783445603</v>
+        <v>0.2329383929093569</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1823346881240032</v>
+        <v>0.1823733356219087</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.156678588944574</v>
+        <v>0.1570602459986181</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2150922076522279</v>
+        <v>0.2136559100171524</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2008865054357544</v>
+        <v>0.1932511564321114</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1839596545229225</v>
+        <v>0.1852320585313062</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1670967008338919</v>
+        <v>0.1667586215810775</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1973171282789542</v>
+        <v>0.19832288923876</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2111900900651089</v>
+        <v>0.2097205983537151</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1708665942318199</v>
+        <v>0.1724980651677287</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1503447961508904</v>
+        <v>0.1531622553216787</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2026024426426478</v>
+        <v>0.1986439770582366</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1296628134735963</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1438480119685847</v>
+        <v>0.1438480119685846</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1200566444012056</v>
+        <v>0.1213236276827336</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1411151592870113</v>
+        <v>0.1383898210781329</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1063768895817758</v>
+        <v>0.1078516901174453</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1273073255024328</v>
+        <v>0.1286256364634066</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1055236312288728</v>
+        <v>0.1061374328104511</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1213253399346825</v>
+        <v>0.1203709638129524</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1139148446580863</v>
+        <v>0.1124447175305321</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1122356525420648</v>
+        <v>0.1139242016985501</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1213149343142743</v>
+        <v>0.1205492435976573</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1383002307412968</v>
+        <v>0.138424070841481</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1151477085561635</v>
+        <v>0.1145992019972616</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1277599815466076</v>
+        <v>0.1277079390195349</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1594846356025508</v>
+        <v>0.1610253936473382</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1846870153919294</v>
+        <v>0.1826205453088609</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1475186777122043</v>
+        <v>0.1473157190824065</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1765233883277771</v>
+        <v>0.1767690346281121</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1542636561490806</v>
+        <v>0.1574916332161013</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1731795683801119</v>
+        <v>0.1703371280422903</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1634251941860927</v>
+        <v>0.160039646998945</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1587712799159348</v>
+        <v>0.1591514490496366</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1527443583105182</v>
+        <v>0.1515535785541678</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1727234608481147</v>
+        <v>0.1726684252591699</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1451083294394294</v>
+        <v>0.1451611175766227</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1602969690385342</v>
+        <v>0.1618997903676681</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09599856469755906</v>
+        <v>0.09660372277315014</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1313025222989575</v>
+        <v>0.1303514594469698</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07534179536545896</v>
+        <v>0.07285948178946769</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1533674763254663</v>
+        <v>0.1568481938056668</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06036808200012246</v>
+        <v>0.06054634940648743</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08142092432268627</v>
+        <v>0.08180744257988257</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.0762881710417241</v>
+        <v>0.07505166258071969</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1175637758437909</v>
+        <v>0.1160527513290369</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.08252211965196238</v>
+        <v>0.08230566419098265</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1099760743190109</v>
+        <v>0.1076948492255565</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.08030960458045397</v>
+        <v>0.07938770983857935</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.138719736090446</v>
+        <v>0.1397006499030387</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1645572472299747</v>
+        <v>0.1685506972563074</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1962007818526628</v>
+        <v>0.1967560189462649</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1251124888131653</v>
+        <v>0.1230933747909682</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2319078287872871</v>
+        <v>0.2376212141390006</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1104374143777187</v>
+        <v>0.1108332681182441</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1291902971482881</v>
+        <v>0.1293287590488845</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1201700638430032</v>
+        <v>0.1189079886043571</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.156298815604705</v>
+        <v>0.1564763662033719</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1215557576272385</v>
+        <v>0.1219963395976223</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1476950830598094</v>
+        <v>0.1454767864583671</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1136592994797156</v>
+        <v>0.1132316397324877</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1790349582541158</v>
+        <v>0.1799333954415411</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.2343926288293551</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.2233736420792909</v>
+        <v>0.223373642079291</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.1170674498810842</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1767206403921953</v>
+        <v>0.1780407760094928</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.275307126202264</v>
+        <v>0.2782917958774094</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1873355749247394</v>
+        <v>0.1836986471068079</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1491750799694024</v>
+        <v>0.149329866451916</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1003593599903394</v>
+        <v>0.09873633719747385</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1218877007716394</v>
+        <v>0.120480738790794</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1187381256298664</v>
+        <v>0.118362881964914</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1034231133474711</v>
+        <v>0.1036738487061461</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1215153794758577</v>
+        <v>0.1212736052578599</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1577754987669622</v>
+        <v>0.1564032232279015</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1401562088266701</v>
+        <v>0.1374115644138061</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1207263465272925</v>
+        <v>0.1211818167664901</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2720858753480719</v>
+        <v>0.2733496810845208</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.382532843472241</v>
+        <v>0.3856441948216325</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2860097395520755</v>
+        <v>0.2860993815338491</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3244949080128745</v>
+        <v>0.3195486046887901</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1370142165501181</v>
+        <v>0.1342691004209003</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1636235769568146</v>
+        <v>0.1633357708865818</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.160958837429263</v>
+        <v>0.1604148194569905</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1500099241878575</v>
+        <v>0.1523030846496311</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1551589189873407</v>
+        <v>0.1543950652401742</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2001719825106602</v>
+        <v>0.1991661411988365</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1792883222737585</v>
+        <v>0.1802912513349331</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1754197535815116</v>
+        <v>0.1755553748837603</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1458997848020383</v>
+        <v>0.1450059707759355</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1614076213787193</v>
+        <v>0.1638424829179334</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1222577755387077</v>
+        <v>0.1210424880773816</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1549347893778113</v>
+        <v>0.1532761842546119</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1130816176410761</v>
+        <v>0.1125437082276586</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.123586421695735</v>
+        <v>0.1225478242304189</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1238266836175911</v>
+        <v>0.1250256504181116</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.122691522797516</v>
+        <v>0.121550899137258</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1328474393535201</v>
+        <v>0.1320439353576383</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1463734726934088</v>
+        <v>0.1463164542371857</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1273393047026753</v>
+        <v>0.1273796854025437</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1411467051953524</v>
+        <v>0.1415562043745666</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1703107431043454</v>
+        <v>0.1705252700964013</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1892911801437382</v>
+        <v>0.1894811200339259</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1467712915057747</v>
+        <v>0.1465111564560219</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1847792160386852</v>
+        <v>0.1842543005877108</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1360413520932012</v>
+        <v>0.1359177473184075</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1460663933908775</v>
+        <v>0.1480841546563511</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1478613797926678</v>
+        <v>0.148222613206898</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1432493157704207</v>
+        <v>0.1432277212398712</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1496214170098547</v>
+        <v>0.1493657416993834</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1645606098674076</v>
+        <v>0.1643285818021545</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1444836339849215</v>
+        <v>0.143627197314106</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1596975053157949</v>
+        <v>0.1588896339003396</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>54082</v>
+        <v>51601</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>73628</v>
+        <v>74252</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>55857</v>
+        <v>55221</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>70384</v>
+        <v>70649</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>38528</v>
+        <v>38025</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>29555</v>
+        <v>30921</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>53319</v>
+        <v>54023</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>44263</v>
+        <v>44656</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>97194</v>
+        <v>95241</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>111551</v>
+        <v>109333</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>117991</v>
+        <v>117917</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>122868</v>
+        <v>124105</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>86099</v>
+        <v>83134</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>108660</v>
+        <v>109567</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>88312</v>
+        <v>86474</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>111283</v>
+        <v>106888</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>65479</v>
+        <v>63547</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>53608</v>
+        <v>56023</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>82376</v>
+        <v>83299</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>71070</v>
+        <v>71283</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>137939</v>
+        <v>139120</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>155092</v>
+        <v>152320</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>161159</v>
+        <v>162516</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>168265</v>
+        <v>170058</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>46008</v>
+        <v>45254</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>45427</v>
+        <v>45524</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>32556</v>
+        <v>34130</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>61677</v>
+        <v>62242</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>48906</v>
+        <v>48022</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>42155</v>
+        <v>41524</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>47954</v>
+        <v>47998</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>49032</v>
+        <v>49109</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>99950</v>
+        <v>100602</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>95880</v>
+        <v>96408</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>88493</v>
+        <v>87637</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>118374</v>
+        <v>121854</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>74400</v>
+        <v>73238</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>75359</v>
+        <v>75873</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>58439</v>
+        <v>60233</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>96538</v>
+        <v>97293</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>77083</v>
+        <v>75539</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>71007</v>
+        <v>70773</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>78006</v>
+        <v>76998</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>75853</v>
+        <v>76965</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>138362</v>
+        <v>139663</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>139618</v>
+        <v>137140</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>127986</v>
+        <v>127107</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>163146</v>
+        <v>164825</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>86785</v>
+        <v>87371</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>78661</v>
+        <v>76803</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>50274</v>
+        <v>50769</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>66003</v>
+        <v>65171</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>15747</v>
+        <v>15136</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>24835</v>
+        <v>25072</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>12158</v>
+        <v>11122</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>20009</v>
+        <v>20385</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>107705</v>
+        <v>108942</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>110347</v>
+        <v>110185</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>67441</v>
+        <v>67130</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>93047</v>
+        <v>91861</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>123374</v>
+        <v>125908</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>114594</v>
+        <v>114618</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>80900</v>
+        <v>81097</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>101148</v>
+        <v>100473</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>33705</v>
+        <v>32424</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>47062</v>
+        <v>47387</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>27759</v>
+        <v>27702</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>36871</v>
+        <v>37059</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>149587</v>
+        <v>148546</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>151099</v>
+        <v>152541</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>102605</v>
+        <v>104528</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>133133</v>
+        <v>130532</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>148298</v>
+        <v>149863</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>161765</v>
+        <v>158641</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>121097</v>
+        <v>122776</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>143502</v>
+        <v>144988</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>75042</v>
+        <v>75479</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>92372</v>
+        <v>91645</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>93539</v>
+        <v>92332</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>96574</v>
+        <v>98026</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>236125</v>
+        <v>234634</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>263834</v>
+        <v>264070</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>225632</v>
+        <v>224558</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>253944</v>
+        <v>253840</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>197001</v>
+        <v>198905</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>211713</v>
+        <v>209344</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>167931</v>
+        <v>167700</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>198979</v>
+        <v>199256</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>109703</v>
+        <v>111999</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>131851</v>
+        <v>129687</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>134193</v>
+        <v>131413</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>136615</v>
+        <v>136942</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>297298</v>
+        <v>294981</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>329503</v>
+        <v>329398</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>284340</v>
+        <v>284444</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>318616</v>
+        <v>321802</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>33555</v>
+        <v>33767</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>66671</v>
+        <v>66188</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>46698</v>
+        <v>45159</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>86876</v>
+        <v>88848</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>34290</v>
+        <v>34391</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>61735</v>
+        <v>62028</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>55912</v>
+        <v>55005</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>97589</v>
+        <v>96334</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>75718</v>
+        <v>75519</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>139228</v>
+        <v>136340</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>108636</v>
+        <v>107389</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>193729</v>
+        <v>195099</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>57519</v>
+        <v>58915</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>99624</v>
+        <v>99906</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>77546</v>
+        <v>76295</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>131366</v>
+        <v>134602</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>62730</v>
+        <v>62955</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>97954</v>
+        <v>98059</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>88073</v>
+        <v>87148</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>129742</v>
+        <v>129889</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>111533</v>
+        <v>111938</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>186979</v>
+        <v>184171</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>153748</v>
+        <v>153170</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>250031</v>
+        <v>251286</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>52399</v>
+        <v>52790</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>72648</v>
+        <v>73435</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>52921</v>
+        <v>51894</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>35389</v>
+        <v>35425</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>124993</v>
+        <v>122972</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>133145</v>
+        <v>131608</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>127590</v>
+        <v>127186</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>87255</v>
+        <v>87467</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>187372</v>
+        <v>187000</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>213981</v>
+        <v>212120</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>190198</v>
+        <v>186473</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>130493</v>
+        <v>130985</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>80675</v>
+        <v>81050</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>100942</v>
+        <v>101763</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>80796</v>
+        <v>80822</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>76979</v>
+        <v>75806</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>170646</v>
+        <v>167227</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>178736</v>
+        <v>178422</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>172958</v>
+        <v>172373</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>126559</v>
+        <v>128494</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>239249</v>
+        <v>238072</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>271481</v>
+        <v>270117</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>243302</v>
+        <v>244663</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>189611</v>
+        <v>189758</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>476000</v>
+        <v>473084</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>547846</v>
+        <v>556111</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>410376</v>
+        <v>406297</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>532198</v>
+        <v>526501</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>381077</v>
+        <v>379264</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>434436</v>
+        <v>430785</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>434045</v>
+        <v>438248</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>445693</v>
+        <v>441549</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>881102</v>
+        <v>875773</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1011356</v>
+        <v>1010962</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>873790</v>
+        <v>874067</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>997570</v>
+        <v>1000464</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>555641</v>
+        <v>556341</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>642488</v>
+        <v>643133</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>492659</v>
+        <v>491786</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>634713</v>
+        <v>632910</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>458449</v>
+        <v>458033</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>513459</v>
+        <v>520552</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>518293</v>
+        <v>519559</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>520372</v>
+        <v>520293</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>992355</v>
+        <v>990659</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1137019</v>
+        <v>1135416</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>991433</v>
+        <v>985556</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1128680</v>
+        <v>1122970</v>
       </c>
     </row>
     <row r="32">
